--- a/2222.SR.xlsx
+++ b/2222.SR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0357C3EF-E5D7-41CE-ABB1-A93D1B3E4109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A52511-9712-4638-9664-2B2A53A7D081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{DB193FA5-1790-4A09-B2E5-66B2BA7E5192}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{DB193FA5-1790-4A09-B2E5-66B2BA7E5192}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,12 +194,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -210,12 +208,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,16 +252,16 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,48 +599,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8539CBCD-02BD-4802-A32A-61F9DB19F09F}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>26.55</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="3">
         <v>241894</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="3">
@@ -637,35 +650,35 @@
         <v>6422285.7000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="3">
         <f>216642+13186+11384</f>
         <v>241212</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="3">
         <f>261733+57557</f>
         <v>319290</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="3">
@@ -673,16 +686,16 @@
         <v>6500363.7000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>0.27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J10" s="3">
@@ -690,8 +703,8 @@
         <v>1734017.1390000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J11" s="3">
@@ -699,13 +712,13 @@
         <v>1755098.1990000003</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -722,69 +735,72 @@
   <dimension ref="A1:AQ634"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="35" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="35" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="3"/>
@@ -833,8 +849,8 @@
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="3"/>
@@ -883,8 +899,8 @@
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="3"/>
@@ -933,8 +949,8 @@
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="3"/>
@@ -983,8 +999,8 @@
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3"/>
@@ -1033,8 +1049,8 @@
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3"/>
@@ -1083,7 +1099,7 @@
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1135,8 +1151,8 @@
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3"/>
@@ -1185,8 +1201,8 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="3"/>
@@ -1235,8 +1251,8 @@
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="3"/>
@@ -1285,8 +1301,8 @@
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="3"/>
@@ -1337,8 +1353,8 @@
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="3"/>
@@ -1387,8 +1403,8 @@
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="3"/>
@@ -1437,8 +1453,8 @@
       <c r="AP15" s="3"/>
       <c r="AQ15" s="3"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="3"/>
@@ -1487,8 +1503,8 @@
       <c r="AP16" s="3"/>
       <c r="AQ16" s="3"/>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3"/>
@@ -1537,8 +1553,8 @@
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="3"/>
@@ -1589,8 +1605,8 @@
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="3"/>
@@ -1639,8 +1655,8 @@
       <c r="AP19" s="3"/>
       <c r="AQ19" s="3"/>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="3"/>
@@ -1689,8 +1705,8 @@
       <c r="AP20" s="3"/>
       <c r="AQ20" s="3"/>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="3"/>
@@ -1739,8 +1755,8 @@
       <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="3"/>
@@ -1791,8 +1807,8 @@
       <c r="AP22" s="3"/>
       <c r="AQ22" s="3"/>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="3"/>
@@ -1841,8 +1857,8 @@
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="3"/>
@@ -1893,8 +1909,8 @@
       <c r="AP24" s="3"/>
       <c r="AQ24" s="3"/>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="3"/>
@@ -1943,8 +1959,8 @@
       <c r="AP25" s="3"/>
       <c r="AQ25" s="3"/>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="3"/>
@@ -1995,7 +2011,7 @@
       <c r="AP26" s="3"/>
       <c r="AQ26" s="3"/>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2038,8 +2054,8 @@
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="3"/>
@@ -2090,8 +2106,8 @@
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="3"/>
@@ -2140,7 +2156,7 @@
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2183,7 +2199,7 @@
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2226,7 +2242,7 @@
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2269,7 +2285,7 @@
       <c r="AP32" s="3"/>
       <c r="AQ32" s="3"/>
     </row>
-    <row r="33" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2312,7 +2328,7 @@
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
     </row>
-    <row r="34" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2355,7 +2371,7 @@
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
     </row>
-    <row r="35" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2398,7 +2414,7 @@
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
     </row>
-    <row r="36" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2441,7 +2457,7 @@
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
     </row>
-    <row r="37" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2484,7 +2500,7 @@
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
     </row>
-    <row r="38" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2527,7 +2543,7 @@
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
     </row>
-    <row r="39" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2570,7 +2586,7 @@
       <c r="AP39" s="3"/>
       <c r="AQ39" s="3"/>
     </row>
-    <row r="40" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2613,7 +2629,7 @@
       <c r="AP40" s="3"/>
       <c r="AQ40" s="3"/>
     </row>
-    <row r="41" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2656,7 +2672,7 @@
       <c r="AP41" s="3"/>
       <c r="AQ41" s="3"/>
     </row>
-    <row r="42" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2699,7 +2715,7 @@
       <c r="AP42" s="3"/>
       <c r="AQ42" s="3"/>
     </row>
-    <row r="43" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2742,7 +2758,7 @@
       <c r="AP43" s="3"/>
       <c r="AQ43" s="3"/>
     </row>
-    <row r="44" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2785,7 +2801,7 @@
       <c r="AP44" s="3"/>
       <c r="AQ44" s="3"/>
     </row>
-    <row r="45" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2828,7 +2844,7 @@
       <c r="AP45" s="3"/>
       <c r="AQ45" s="3"/>
     </row>
-    <row r="46" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2871,7 +2887,7 @@
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
     </row>
-    <row r="47" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2914,7 +2930,7 @@
       <c r="AP47" s="3"/>
       <c r="AQ47" s="3"/>
     </row>
-    <row r="48" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2957,7 +2973,7 @@
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
     </row>
-    <row r="49" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3000,7 +3016,7 @@
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
     </row>
-    <row r="50" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3043,7 +3059,7 @@
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
     </row>
-    <row r="51" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3086,7 +3102,7 @@
       <c r="AP51" s="3"/>
       <c r="AQ51" s="3"/>
     </row>
-    <row r="52" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3129,7 +3145,7 @@
       <c r="AP52" s="3"/>
       <c r="AQ52" s="3"/>
     </row>
-    <row r="53" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3172,7 +3188,7 @@
       <c r="AP53" s="3"/>
       <c r="AQ53" s="3"/>
     </row>
-    <row r="54" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3215,7 +3231,7 @@
       <c r="AP54" s="3"/>
       <c r="AQ54" s="3"/>
     </row>
-    <row r="55" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3258,7 +3274,7 @@
       <c r="AP55" s="3"/>
       <c r="AQ55" s="3"/>
     </row>
-    <row r="56" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3301,7 +3317,7 @@
       <c r="AP56" s="3"/>
       <c r="AQ56" s="3"/>
     </row>
-    <row r="57" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3344,7 +3360,7 @@
       <c r="AP57" s="3"/>
       <c r="AQ57" s="3"/>
     </row>
-    <row r="58" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3387,7 +3403,7 @@
       <c r="AP58" s="3"/>
       <c r="AQ58" s="3"/>
     </row>
-    <row r="59" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3430,7 +3446,7 @@
       <c r="AP59" s="3"/>
       <c r="AQ59" s="3"/>
     </row>
-    <row r="60" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3473,7 +3489,7 @@
       <c r="AP60" s="3"/>
       <c r="AQ60" s="3"/>
     </row>
-    <row r="61" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3516,7 +3532,7 @@
       <c r="AP61" s="3"/>
       <c r="AQ61" s="3"/>
     </row>
-    <row r="62" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3559,7 +3575,7 @@
       <c r="AP62" s="3"/>
       <c r="AQ62" s="3"/>
     </row>
-    <row r="63" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3602,7 +3618,7 @@
       <c r="AP63" s="3"/>
       <c r="AQ63" s="3"/>
     </row>
-    <row r="64" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3645,7 +3661,7 @@
       <c r="AP64" s="3"/>
       <c r="AQ64" s="3"/>
     </row>
-    <row r="65" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3688,7 +3704,7 @@
       <c r="AP65" s="3"/>
       <c r="AQ65" s="3"/>
     </row>
-    <row r="66" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3731,7 +3747,7 @@
       <c r="AP66" s="3"/>
       <c r="AQ66" s="3"/>
     </row>
-    <row r="67" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3774,7 +3790,7 @@
       <c r="AP67" s="3"/>
       <c r="AQ67" s="3"/>
     </row>
-    <row r="68" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3817,7 +3833,7 @@
       <c r="AP68" s="3"/>
       <c r="AQ68" s="3"/>
     </row>
-    <row r="69" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3860,7 +3876,7 @@
       <c r="AP69" s="3"/>
       <c r="AQ69" s="3"/>
     </row>
-    <row r="70" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3903,7 +3919,7 @@
       <c r="AP70" s="3"/>
       <c r="AQ70" s="3"/>
     </row>
-    <row r="71" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3946,7 +3962,7 @@
       <c r="AP71" s="3"/>
       <c r="AQ71" s="3"/>
     </row>
-    <row r="72" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3989,7 +4005,7 @@
       <c r="AP72" s="3"/>
       <c r="AQ72" s="3"/>
     </row>
-    <row r="73" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4032,7 +4048,7 @@
       <c r="AP73" s="3"/>
       <c r="AQ73" s="3"/>
     </row>
-    <row r="74" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4075,7 +4091,7 @@
       <c r="AP74" s="3"/>
       <c r="AQ74" s="3"/>
     </row>
-    <row r="75" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4118,7 +4134,7 @@
       <c r="AP75" s="3"/>
       <c r="AQ75" s="3"/>
     </row>
-    <row r="76" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4161,7 +4177,7 @@
       <c r="AP76" s="3"/>
       <c r="AQ76" s="3"/>
     </row>
-    <row r="77" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4204,7 +4220,7 @@
       <c r="AP77" s="3"/>
       <c r="AQ77" s="3"/>
     </row>
-    <row r="78" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4247,7 +4263,7 @@
       <c r="AP78" s="3"/>
       <c r="AQ78" s="3"/>
     </row>
-    <row r="79" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4290,7 +4306,7 @@
       <c r="AP79" s="3"/>
       <c r="AQ79" s="3"/>
     </row>
-    <row r="80" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4333,7 +4349,7 @@
       <c r="AP80" s="3"/>
       <c r="AQ80" s="3"/>
     </row>
-    <row r="81" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4376,7 +4392,7 @@
       <c r="AP81" s="3"/>
       <c r="AQ81" s="3"/>
     </row>
-    <row r="82" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4419,7 +4435,7 @@
       <c r="AP82" s="3"/>
       <c r="AQ82" s="3"/>
     </row>
-    <row r="83" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4462,7 +4478,7 @@
       <c r="AP83" s="3"/>
       <c r="AQ83" s="3"/>
     </row>
-    <row r="84" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4505,7 +4521,7 @@
       <c r="AP84" s="3"/>
       <c r="AQ84" s="3"/>
     </row>
-    <row r="85" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4548,7 +4564,7 @@
       <c r="AP85" s="3"/>
       <c r="AQ85" s="3"/>
     </row>
-    <row r="86" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4591,7 +4607,7 @@
       <c r="AP86" s="3"/>
       <c r="AQ86" s="3"/>
     </row>
-    <row r="87" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4634,7 +4650,7 @@
       <c r="AP87" s="3"/>
       <c r="AQ87" s="3"/>
     </row>
-    <row r="88" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4677,7 +4693,7 @@
       <c r="AP88" s="3"/>
       <c r="AQ88" s="3"/>
     </row>
-    <row r="89" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4720,7 +4736,7 @@
       <c r="AP89" s="3"/>
       <c r="AQ89" s="3"/>
     </row>
-    <row r="90" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4763,7 +4779,7 @@
       <c r="AP90" s="3"/>
       <c r="AQ90" s="3"/>
     </row>
-    <row r="91" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4806,7 +4822,7 @@
       <c r="AP91" s="3"/>
       <c r="AQ91" s="3"/>
     </row>
-    <row r="92" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4849,7 +4865,7 @@
       <c r="AP92" s="3"/>
       <c r="AQ92" s="3"/>
     </row>
-    <row r="93" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4892,7 +4908,7 @@
       <c r="AP93" s="3"/>
       <c r="AQ93" s="3"/>
     </row>
-    <row r="94" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4935,7 +4951,7 @@
       <c r="AP94" s="3"/>
       <c r="AQ94" s="3"/>
     </row>
-    <row r="95" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4978,7 +4994,7 @@
       <c r="AP95" s="3"/>
       <c r="AQ95" s="3"/>
     </row>
-    <row r="96" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -5021,7 +5037,7 @@
       <c r="AP96" s="3"/>
       <c r="AQ96" s="3"/>
     </row>
-    <row r="97" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -5064,7 +5080,7 @@
       <c r="AP97" s="3"/>
       <c r="AQ97" s="3"/>
     </row>
-    <row r="98" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -5107,7 +5123,7 @@
       <c r="AP98" s="3"/>
       <c r="AQ98" s="3"/>
     </row>
-    <row r="99" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -5150,7 +5166,7 @@
       <c r="AP99" s="3"/>
       <c r="AQ99" s="3"/>
     </row>
-    <row r="100" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -5193,7 +5209,7 @@
       <c r="AP100" s="3"/>
       <c r="AQ100" s="3"/>
     </row>
-    <row r="101" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -5236,7 +5252,7 @@
       <c r="AP101" s="3"/>
       <c r="AQ101" s="3"/>
     </row>
-    <row r="102" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -5279,7 +5295,7 @@
       <c r="AP102" s="3"/>
       <c r="AQ102" s="3"/>
     </row>
-    <row r="103" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -5322,7 +5338,7 @@
       <c r="AP103" s="3"/>
       <c r="AQ103" s="3"/>
     </row>
-    <row r="104" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5365,7 +5381,7 @@
       <c r="AP104" s="3"/>
       <c r="AQ104" s="3"/>
     </row>
-    <row r="105" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -5408,7 +5424,7 @@
       <c r="AP105" s="3"/>
       <c r="AQ105" s="3"/>
     </row>
-    <row r="106" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -5451,7 +5467,7 @@
       <c r="AP106" s="3"/>
       <c r="AQ106" s="3"/>
     </row>
-    <row r="107" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -5494,7 +5510,7 @@
       <c r="AP107" s="3"/>
       <c r="AQ107" s="3"/>
     </row>
-    <row r="108" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -5537,7 +5553,7 @@
       <c r="AP108" s="3"/>
       <c r="AQ108" s="3"/>
     </row>
-    <row r="109" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -5580,7 +5596,7 @@
       <c r="AP109" s="3"/>
       <c r="AQ109" s="3"/>
     </row>
-    <row r="110" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -5623,7 +5639,7 @@
       <c r="AP110" s="3"/>
       <c r="AQ110" s="3"/>
     </row>
-    <row r="111" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -5666,7 +5682,7 @@
       <c r="AP111" s="3"/>
       <c r="AQ111" s="3"/>
     </row>
-    <row r="112" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5709,7 +5725,7 @@
       <c r="AP112" s="3"/>
       <c r="AQ112" s="3"/>
     </row>
-    <row r="113" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5752,7 +5768,7 @@
       <c r="AP113" s="3"/>
       <c r="AQ113" s="3"/>
     </row>
-    <row r="114" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -5795,7 +5811,7 @@
       <c r="AP114" s="3"/>
       <c r="AQ114" s="3"/>
     </row>
-    <row r="115" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5838,7 +5854,7 @@
       <c r="AP115" s="3"/>
       <c r="AQ115" s="3"/>
     </row>
-    <row r="116" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5881,7 +5897,7 @@
       <c r="AP116" s="3"/>
       <c r="AQ116" s="3"/>
     </row>
-    <row r="117" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5924,7 +5940,7 @@
       <c r="AP117" s="3"/>
       <c r="AQ117" s="3"/>
     </row>
-    <row r="118" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5967,7 +5983,7 @@
       <c r="AP118" s="3"/>
       <c r="AQ118" s="3"/>
     </row>
-    <row r="119" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -6010,7 +6026,7 @@
       <c r="AP119" s="3"/>
       <c r="AQ119" s="3"/>
     </row>
-    <row r="120" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -6053,7 +6069,7 @@
       <c r="AP120" s="3"/>
       <c r="AQ120" s="3"/>
     </row>
-    <row r="121" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -6096,7 +6112,7 @@
       <c r="AP121" s="3"/>
       <c r="AQ121" s="3"/>
     </row>
-    <row r="122" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -6139,7 +6155,7 @@
       <c r="AP122" s="3"/>
       <c r="AQ122" s="3"/>
     </row>
-    <row r="123" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -6182,7 +6198,7 @@
       <c r="AP123" s="3"/>
       <c r="AQ123" s="3"/>
     </row>
-    <row r="124" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -6225,7 +6241,7 @@
       <c r="AP124" s="3"/>
       <c r="AQ124" s="3"/>
     </row>
-    <row r="125" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -6268,7 +6284,7 @@
       <c r="AP125" s="3"/>
       <c r="AQ125" s="3"/>
     </row>
-    <row r="126" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -6311,7 +6327,7 @@
       <c r="AP126" s="3"/>
       <c r="AQ126" s="3"/>
     </row>
-    <row r="127" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -6354,7 +6370,7 @@
       <c r="AP127" s="3"/>
       <c r="AQ127" s="3"/>
     </row>
-    <row r="128" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -6397,7 +6413,7 @@
       <c r="AP128" s="3"/>
       <c r="AQ128" s="3"/>
     </row>
-    <row r="129" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -6440,7 +6456,7 @@
       <c r="AP129" s="3"/>
       <c r="AQ129" s="3"/>
     </row>
-    <row r="130" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -6483,7 +6499,7 @@
       <c r="AP130" s="3"/>
       <c r="AQ130" s="3"/>
     </row>
-    <row r="131" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -6526,7 +6542,7 @@
       <c r="AP131" s="3"/>
       <c r="AQ131" s="3"/>
     </row>
-    <row r="132" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -6569,7 +6585,7 @@
       <c r="AP132" s="3"/>
       <c r="AQ132" s="3"/>
     </row>
-    <row r="133" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -6612,7 +6628,7 @@
       <c r="AP133" s="3"/>
       <c r="AQ133" s="3"/>
     </row>
-    <row r="134" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -6655,7 +6671,7 @@
       <c r="AP134" s="3"/>
       <c r="AQ134" s="3"/>
     </row>
-    <row r="135" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -6698,7 +6714,7 @@
       <c r="AP135" s="3"/>
       <c r="AQ135" s="3"/>
     </row>
-    <row r="136" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6741,7 +6757,7 @@
       <c r="AP136" s="3"/>
       <c r="AQ136" s="3"/>
     </row>
-    <row r="137" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6784,7 +6800,7 @@
       <c r="AP137" s="3"/>
       <c r="AQ137" s="3"/>
     </row>
-    <row r="138" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -6827,7 +6843,7 @@
       <c r="AP138" s="3"/>
       <c r="AQ138" s="3"/>
     </row>
-    <row r="139" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -6870,7 +6886,7 @@
       <c r="AP139" s="3"/>
       <c r="AQ139" s="3"/>
     </row>
-    <row r="140" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -6913,7 +6929,7 @@
       <c r="AP140" s="3"/>
       <c r="AQ140" s="3"/>
     </row>
-    <row r="141" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -6956,7 +6972,7 @@
       <c r="AP141" s="3"/>
       <c r="AQ141" s="3"/>
     </row>
-    <row r="142" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6999,7 +7015,7 @@
       <c r="AP142" s="3"/>
       <c r="AQ142" s="3"/>
     </row>
-    <row r="143" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -7042,7 +7058,7 @@
       <c r="AP143" s="3"/>
       <c r="AQ143" s="3"/>
     </row>
-    <row r="144" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -7085,7 +7101,7 @@
       <c r="AP144" s="3"/>
       <c r="AQ144" s="3"/>
     </row>
-    <row r="145" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -7128,7 +7144,7 @@
       <c r="AP145" s="3"/>
       <c r="AQ145" s="3"/>
     </row>
-    <row r="146" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -7171,7 +7187,7 @@
       <c r="AP146" s="3"/>
       <c r="AQ146" s="3"/>
     </row>
-    <row r="147" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -7214,7 +7230,7 @@
       <c r="AP147" s="3"/>
       <c r="AQ147" s="3"/>
     </row>
-    <row r="148" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -7257,7 +7273,7 @@
       <c r="AP148" s="3"/>
       <c r="AQ148" s="3"/>
     </row>
-    <row r="149" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -7300,7 +7316,7 @@
       <c r="AP149" s="3"/>
       <c r="AQ149" s="3"/>
     </row>
-    <row r="150" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -7343,7 +7359,7 @@
       <c r="AP150" s="3"/>
       <c r="AQ150" s="3"/>
     </row>
-    <row r="151" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -7386,7 +7402,7 @@
       <c r="AP151" s="3"/>
       <c r="AQ151" s="3"/>
     </row>
-    <row r="152" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -7429,7 +7445,7 @@
       <c r="AP152" s="3"/>
       <c r="AQ152" s="3"/>
     </row>
-    <row r="153" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -7472,7 +7488,7 @@
       <c r="AP153" s="3"/>
       <c r="AQ153" s="3"/>
     </row>
-    <row r="154" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -7515,7 +7531,7 @@
       <c r="AP154" s="3"/>
       <c r="AQ154" s="3"/>
     </row>
-    <row r="155" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -7558,7 +7574,7 @@
       <c r="AP155" s="3"/>
       <c r="AQ155" s="3"/>
     </row>
-    <row r="156" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -7601,7 +7617,7 @@
       <c r="AP156" s="3"/>
       <c r="AQ156" s="3"/>
     </row>
-    <row r="157" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -7644,7 +7660,7 @@
       <c r="AP157" s="3"/>
       <c r="AQ157" s="3"/>
     </row>
-    <row r="158" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -7687,7 +7703,7 @@
       <c r="AP158" s="3"/>
       <c r="AQ158" s="3"/>
     </row>
-    <row r="159" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -7730,7 +7746,7 @@
       <c r="AP159" s="3"/>
       <c r="AQ159" s="3"/>
     </row>
-    <row r="160" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -7773,7 +7789,7 @@
       <c r="AP160" s="3"/>
       <c r="AQ160" s="3"/>
     </row>
-    <row r="161" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -7816,7 +7832,7 @@
       <c r="AP161" s="3"/>
       <c r="AQ161" s="3"/>
     </row>
-    <row r="162" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -7859,7 +7875,7 @@
       <c r="AP162" s="3"/>
       <c r="AQ162" s="3"/>
     </row>
-    <row r="163" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -7902,7 +7918,7 @@
       <c r="AP163" s="3"/>
       <c r="AQ163" s="3"/>
     </row>
-    <row r="164" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -7945,7 +7961,7 @@
       <c r="AP164" s="3"/>
       <c r="AQ164" s="3"/>
     </row>
-    <row r="165" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -7988,7 +8004,7 @@
       <c r="AP165" s="3"/>
       <c r="AQ165" s="3"/>
     </row>
-    <row r="166" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -8031,7 +8047,7 @@
       <c r="AP166" s="3"/>
       <c r="AQ166" s="3"/>
     </row>
-    <row r="167" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -8074,7 +8090,7 @@
       <c r="AP167" s="3"/>
       <c r="AQ167" s="3"/>
     </row>
-    <row r="168" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -8117,7 +8133,7 @@
       <c r="AP168" s="3"/>
       <c r="AQ168" s="3"/>
     </row>
-    <row r="169" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -8160,7 +8176,7 @@
       <c r="AP169" s="3"/>
       <c r="AQ169" s="3"/>
     </row>
-    <row r="170" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -8203,7 +8219,7 @@
       <c r="AP170" s="3"/>
       <c r="AQ170" s="3"/>
     </row>
-    <row r="171" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -8246,7 +8262,7 @@
       <c r="AP171" s="3"/>
       <c r="AQ171" s="3"/>
     </row>
-    <row r="172" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -8289,7 +8305,7 @@
       <c r="AP172" s="3"/>
       <c r="AQ172" s="3"/>
     </row>
-    <row r="173" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -8332,7 +8348,7 @@
       <c r="AP173" s="3"/>
       <c r="AQ173" s="3"/>
     </row>
-    <row r="174" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -8375,7 +8391,7 @@
       <c r="AP174" s="3"/>
       <c r="AQ174" s="3"/>
     </row>
-    <row r="175" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -8418,7 +8434,7 @@
       <c r="AP175" s="3"/>
       <c r="AQ175" s="3"/>
     </row>
-    <row r="176" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -8461,7 +8477,7 @@
       <c r="AP176" s="3"/>
       <c r="AQ176" s="3"/>
     </row>
-    <row r="177" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -8504,7 +8520,7 @@
       <c r="AP177" s="3"/>
       <c r="AQ177" s="3"/>
     </row>
-    <row r="178" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -8547,7 +8563,7 @@
       <c r="AP178" s="3"/>
       <c r="AQ178" s="3"/>
     </row>
-    <row r="179" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -8590,7 +8606,7 @@
       <c r="AP179" s="3"/>
       <c r="AQ179" s="3"/>
     </row>
-    <row r="180" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -8633,7 +8649,7 @@
       <c r="AP180" s="3"/>
       <c r="AQ180" s="3"/>
     </row>
-    <row r="181" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -8676,7 +8692,7 @@
       <c r="AP181" s="3"/>
       <c r="AQ181" s="3"/>
     </row>
-    <row r="182" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -8719,7 +8735,7 @@
       <c r="AP182" s="3"/>
       <c r="AQ182" s="3"/>
     </row>
-    <row r="183" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -8762,7 +8778,7 @@
       <c r="AP183" s="3"/>
       <c r="AQ183" s="3"/>
     </row>
-    <row r="184" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -8805,7 +8821,7 @@
       <c r="AP184" s="3"/>
       <c r="AQ184" s="3"/>
     </row>
-    <row r="185" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -8848,7 +8864,7 @@
       <c r="AP185" s="3"/>
       <c r="AQ185" s="3"/>
     </row>
-    <row r="186" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -8891,7 +8907,7 @@
       <c r="AP186" s="3"/>
       <c r="AQ186" s="3"/>
     </row>
-    <row r="187" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -8934,7 +8950,7 @@
       <c r="AP187" s="3"/>
       <c r="AQ187" s="3"/>
     </row>
-    <row r="188" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -8977,7 +8993,7 @@
       <c r="AP188" s="3"/>
       <c r="AQ188" s="3"/>
     </row>
-    <row r="189" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -9020,7 +9036,7 @@
       <c r="AP189" s="3"/>
       <c r="AQ189" s="3"/>
     </row>
-    <row r="190" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -9063,7 +9079,7 @@
       <c r="AP190" s="3"/>
       <c r="AQ190" s="3"/>
     </row>
-    <row r="191" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -9106,7 +9122,7 @@
       <c r="AP191" s="3"/>
       <c r="AQ191" s="3"/>
     </row>
-    <row r="192" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -9149,7 +9165,7 @@
       <c r="AP192" s="3"/>
       <c r="AQ192" s="3"/>
     </row>
-    <row r="193" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -9192,7 +9208,7 @@
       <c r="AP193" s="3"/>
       <c r="AQ193" s="3"/>
     </row>
-    <row r="194" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -9235,7 +9251,7 @@
       <c r="AP194" s="3"/>
       <c r="AQ194" s="3"/>
     </row>
-    <row r="195" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -9278,7 +9294,7 @@
       <c r="AP195" s="3"/>
       <c r="AQ195" s="3"/>
     </row>
-    <row r="196" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -9321,7 +9337,7 @@
       <c r="AP196" s="3"/>
       <c r="AQ196" s="3"/>
     </row>
-    <row r="197" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -9364,7 +9380,7 @@
       <c r="AP197" s="3"/>
       <c r="AQ197" s="3"/>
     </row>
-    <row r="198" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -9407,7 +9423,7 @@
       <c r="AP198" s="3"/>
       <c r="AQ198" s="3"/>
     </row>
-    <row r="199" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -9450,7 +9466,7 @@
       <c r="AP199" s="3"/>
       <c r="AQ199" s="3"/>
     </row>
-    <row r="200" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -9493,7 +9509,7 @@
       <c r="AP200" s="3"/>
       <c r="AQ200" s="3"/>
     </row>
-    <row r="201" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -9536,7 +9552,7 @@
       <c r="AP201" s="3"/>
       <c r="AQ201" s="3"/>
     </row>
-    <row r="202" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -9579,7 +9595,7 @@
       <c r="AP202" s="3"/>
       <c r="AQ202" s="3"/>
     </row>
-    <row r="203" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -9622,7 +9638,7 @@
       <c r="AP203" s="3"/>
       <c r="AQ203" s="3"/>
     </row>
-    <row r="204" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -9665,7 +9681,7 @@
       <c r="AP204" s="3"/>
       <c r="AQ204" s="3"/>
     </row>
-    <row r="205" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -9708,7 +9724,7 @@
       <c r="AP205" s="3"/>
       <c r="AQ205" s="3"/>
     </row>
-    <row r="206" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -9751,7 +9767,7 @@
       <c r="AP206" s="3"/>
       <c r="AQ206" s="3"/>
     </row>
-    <row r="207" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -9794,7 +9810,7 @@
       <c r="AP207" s="3"/>
       <c r="AQ207" s="3"/>
     </row>
-    <row r="208" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -9837,7 +9853,7 @@
       <c r="AP208" s="3"/>
       <c r="AQ208" s="3"/>
     </row>
-    <row r="209" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -9880,7 +9896,7 @@
       <c r="AP209" s="3"/>
       <c r="AQ209" s="3"/>
     </row>
-    <row r="210" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -9923,7 +9939,7 @@
       <c r="AP210" s="3"/>
       <c r="AQ210" s="3"/>
     </row>
-    <row r="211" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -9966,7 +9982,7 @@
       <c r="AP211" s="3"/>
       <c r="AQ211" s="3"/>
     </row>
-    <row r="212" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -10009,7 +10025,7 @@
       <c r="AP212" s="3"/>
       <c r="AQ212" s="3"/>
     </row>
-    <row r="213" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -10052,7 +10068,7 @@
       <c r="AP213" s="3"/>
       <c r="AQ213" s="3"/>
     </row>
-    <row r="214" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -10095,7 +10111,7 @@
       <c r="AP214" s="3"/>
       <c r="AQ214" s="3"/>
     </row>
-    <row r="215" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -10138,7 +10154,7 @@
       <c r="AP215" s="3"/>
       <c r="AQ215" s="3"/>
     </row>
-    <row r="216" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -10181,7 +10197,7 @@
       <c r="AP216" s="3"/>
       <c r="AQ216" s="3"/>
     </row>
-    <row r="217" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -10224,7 +10240,7 @@
       <c r="AP217" s="3"/>
       <c r="AQ217" s="3"/>
     </row>
-    <row r="218" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -10267,7 +10283,7 @@
       <c r="AP218" s="3"/>
       <c r="AQ218" s="3"/>
     </row>
-    <row r="219" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -10310,7 +10326,7 @@
       <c r="AP219" s="3"/>
       <c r="AQ219" s="3"/>
     </row>
-    <row r="220" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -10353,7 +10369,7 @@
       <c r="AP220" s="3"/>
       <c r="AQ220" s="3"/>
     </row>
-    <row r="221" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -10396,7 +10412,7 @@
       <c r="AP221" s="3"/>
       <c r="AQ221" s="3"/>
     </row>
-    <row r="222" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -10439,7 +10455,7 @@
       <c r="AP222" s="3"/>
       <c r="AQ222" s="3"/>
     </row>
-    <row r="223" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -10482,7 +10498,7 @@
       <c r="AP223" s="3"/>
       <c r="AQ223" s="3"/>
     </row>
-    <row r="224" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -10525,7 +10541,7 @@
       <c r="AP224" s="3"/>
       <c r="AQ224" s="3"/>
     </row>
-    <row r="225" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -10568,7 +10584,7 @@
       <c r="AP225" s="3"/>
       <c r="AQ225" s="3"/>
     </row>
-    <row r="226" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -10611,7 +10627,7 @@
       <c r="AP226" s="3"/>
       <c r="AQ226" s="3"/>
     </row>
-    <row r="227" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -10654,7 +10670,7 @@
       <c r="AP227" s="3"/>
       <c r="AQ227" s="3"/>
     </row>
-    <row r="228" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -10697,7 +10713,7 @@
       <c r="AP228" s="3"/>
       <c r="AQ228" s="3"/>
     </row>
-    <row r="229" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -10740,7 +10756,7 @@
       <c r="AP229" s="3"/>
       <c r="AQ229" s="3"/>
     </row>
-    <row r="230" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -10783,7 +10799,7 @@
       <c r="AP230" s="3"/>
       <c r="AQ230" s="3"/>
     </row>
-    <row r="231" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -10826,7 +10842,7 @@
       <c r="AP231" s="3"/>
       <c r="AQ231" s="3"/>
     </row>
-    <row r="232" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -10869,7 +10885,7 @@
       <c r="AP232" s="3"/>
       <c r="AQ232" s="3"/>
     </row>
-    <row r="233" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -10912,7 +10928,7 @@
       <c r="AP233" s="3"/>
       <c r="AQ233" s="3"/>
     </row>
-    <row r="234" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -10955,7 +10971,7 @@
       <c r="AP234" s="3"/>
       <c r="AQ234" s="3"/>
     </row>
-    <row r="235" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -10998,7 +11014,7 @@
       <c r="AP235" s="3"/>
       <c r="AQ235" s="3"/>
     </row>
-    <row r="236" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -11041,7 +11057,7 @@
       <c r="AP236" s="3"/>
       <c r="AQ236" s="3"/>
     </row>
-    <row r="237" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -11084,7 +11100,7 @@
       <c r="AP237" s="3"/>
       <c r="AQ237" s="3"/>
     </row>
-    <row r="238" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -11127,7 +11143,7 @@
       <c r="AP238" s="3"/>
       <c r="AQ238" s="3"/>
     </row>
-    <row r="239" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -11170,7 +11186,7 @@
       <c r="AP239" s="3"/>
       <c r="AQ239" s="3"/>
     </row>
-    <row r="240" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -11213,7 +11229,7 @@
       <c r="AP240" s="3"/>
       <c r="AQ240" s="3"/>
     </row>
-    <row r="241" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -11256,7 +11272,7 @@
       <c r="AP241" s="3"/>
       <c r="AQ241" s="3"/>
     </row>
-    <row r="242" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -11299,7 +11315,7 @@
       <c r="AP242" s="3"/>
       <c r="AQ242" s="3"/>
     </row>
-    <row r="243" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -11342,7 +11358,7 @@
       <c r="AP243" s="3"/>
       <c r="AQ243" s="3"/>
     </row>
-    <row r="244" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -11385,7 +11401,7 @@
       <c r="AP244" s="3"/>
       <c r="AQ244" s="3"/>
     </row>
-    <row r="245" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -11428,7 +11444,7 @@
       <c r="AP245" s="3"/>
       <c r="AQ245" s="3"/>
     </row>
-    <row r="246" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -11471,7 +11487,7 @@
       <c r="AP246" s="3"/>
       <c r="AQ246" s="3"/>
     </row>
-    <row r="247" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -11514,7 +11530,7 @@
       <c r="AP247" s="3"/>
       <c r="AQ247" s="3"/>
     </row>
-    <row r="248" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -11557,7 +11573,7 @@
       <c r="AP248" s="3"/>
       <c r="AQ248" s="3"/>
     </row>
-    <row r="249" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -11600,7 +11616,7 @@
       <c r="AP249" s="3"/>
       <c r="AQ249" s="3"/>
     </row>
-    <row r="250" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -11643,7 +11659,7 @@
       <c r="AP250" s="3"/>
       <c r="AQ250" s="3"/>
     </row>
-    <row r="251" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -11686,7 +11702,7 @@
       <c r="AP251" s="3"/>
       <c r="AQ251" s="3"/>
     </row>
-    <row r="252" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -11729,7 +11745,7 @@
       <c r="AP252" s="3"/>
       <c r="AQ252" s="3"/>
     </row>
-    <row r="253" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -11772,7 +11788,7 @@
       <c r="AP253" s="3"/>
       <c r="AQ253" s="3"/>
     </row>
-    <row r="254" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -11815,7 +11831,7 @@
       <c r="AP254" s="3"/>
       <c r="AQ254" s="3"/>
     </row>
-    <row r="255" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -11858,7 +11874,7 @@
       <c r="AP255" s="3"/>
       <c r="AQ255" s="3"/>
     </row>
-    <row r="256" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -11901,7 +11917,7 @@
       <c r="AP256" s="3"/>
       <c r="AQ256" s="3"/>
     </row>
-    <row r="257" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -11944,7 +11960,7 @@
       <c r="AP257" s="3"/>
       <c r="AQ257" s="3"/>
     </row>
-    <row r="258" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -11987,7 +12003,7 @@
       <c r="AP258" s="3"/>
       <c r="AQ258" s="3"/>
     </row>
-    <row r="259" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -12030,7 +12046,7 @@
       <c r="AP259" s="3"/>
       <c r="AQ259" s="3"/>
     </row>
-    <row r="260" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -12073,7 +12089,7 @@
       <c r="AP260" s="3"/>
       <c r="AQ260" s="3"/>
     </row>
-    <row r="261" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -12116,7 +12132,7 @@
       <c r="AP261" s="3"/>
       <c r="AQ261" s="3"/>
     </row>
-    <row r="262" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -12159,7 +12175,7 @@
       <c r="AP262" s="3"/>
       <c r="AQ262" s="3"/>
     </row>
-    <row r="263" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -12202,7 +12218,7 @@
       <c r="AP263" s="3"/>
       <c r="AQ263" s="3"/>
     </row>
-    <row r="264" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -12245,7 +12261,7 @@
       <c r="AP264" s="3"/>
       <c r="AQ264" s="3"/>
     </row>
-    <row r="265" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -12288,7 +12304,7 @@
       <c r="AP265" s="3"/>
       <c r="AQ265" s="3"/>
     </row>
-    <row r="266" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -12331,7 +12347,7 @@
       <c r="AP266" s="3"/>
       <c r="AQ266" s="3"/>
     </row>
-    <row r="267" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -12374,7 +12390,7 @@
       <c r="AP267" s="3"/>
       <c r="AQ267" s="3"/>
     </row>
-    <row r="268" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -12417,7 +12433,7 @@
       <c r="AP268" s="3"/>
       <c r="AQ268" s="3"/>
     </row>
-    <row r="269" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -12460,7 +12476,7 @@
       <c r="AP269" s="3"/>
       <c r="AQ269" s="3"/>
     </row>
-    <row r="270" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -12503,7 +12519,7 @@
       <c r="AP270" s="3"/>
       <c r="AQ270" s="3"/>
     </row>
-    <row r="271" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -12546,7 +12562,7 @@
       <c r="AP271" s="3"/>
       <c r="AQ271" s="3"/>
     </row>
-    <row r="272" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -12589,7 +12605,7 @@
       <c r="AP272" s="3"/>
       <c r="AQ272" s="3"/>
     </row>
-    <row r="273" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -12632,7 +12648,7 @@
       <c r="AP273" s="3"/>
       <c r="AQ273" s="3"/>
     </row>
-    <row r="274" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -12675,7 +12691,7 @@
       <c r="AP274" s="3"/>
       <c r="AQ274" s="3"/>
     </row>
-    <row r="275" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -12718,7 +12734,7 @@
       <c r="AP275" s="3"/>
       <c r="AQ275" s="3"/>
     </row>
-    <row r="276" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -12761,7 +12777,7 @@
       <c r="AP276" s="3"/>
       <c r="AQ276" s="3"/>
     </row>
-    <row r="277" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -12804,7 +12820,7 @@
       <c r="AP277" s="3"/>
       <c r="AQ277" s="3"/>
     </row>
-    <row r="278" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -12847,7 +12863,7 @@
       <c r="AP278" s="3"/>
       <c r="AQ278" s="3"/>
     </row>
-    <row r="279" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -12890,7 +12906,7 @@
       <c r="AP279" s="3"/>
       <c r="AQ279" s="3"/>
     </row>
-    <row r="280" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -12933,7 +12949,7 @@
       <c r="AP280" s="3"/>
       <c r="AQ280" s="3"/>
     </row>
-    <row r="281" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -12976,7 +12992,7 @@
       <c r="AP281" s="3"/>
       <c r="AQ281" s="3"/>
     </row>
-    <row r="282" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -13019,7 +13035,7 @@
       <c r="AP282" s="3"/>
       <c r="AQ282" s="3"/>
     </row>
-    <row r="283" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -13062,7 +13078,7 @@
       <c r="AP283" s="3"/>
       <c r="AQ283" s="3"/>
     </row>
-    <row r="284" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -13105,7 +13121,7 @@
       <c r="AP284" s="3"/>
       <c r="AQ284" s="3"/>
     </row>
-    <row r="285" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -13148,7 +13164,7 @@
       <c r="AP285" s="3"/>
       <c r="AQ285" s="3"/>
     </row>
-    <row r="286" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -13191,7 +13207,7 @@
       <c r="AP286" s="3"/>
       <c r="AQ286" s="3"/>
     </row>
-    <row r="287" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -13234,7 +13250,7 @@
       <c r="AP287" s="3"/>
       <c r="AQ287" s="3"/>
     </row>
-    <row r="288" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -13277,7 +13293,7 @@
       <c r="AP288" s="3"/>
       <c r="AQ288" s="3"/>
     </row>
-    <row r="289" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -13320,7 +13336,7 @@
       <c r="AP289" s="3"/>
       <c r="AQ289" s="3"/>
     </row>
-    <row r="290" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -13363,7 +13379,7 @@
       <c r="AP290" s="3"/>
       <c r="AQ290" s="3"/>
     </row>
-    <row r="291" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -13406,7 +13422,7 @@
       <c r="AP291" s="3"/>
       <c r="AQ291" s="3"/>
     </row>
-    <row r="292" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -13449,7 +13465,7 @@
       <c r="AP292" s="3"/>
       <c r="AQ292" s="3"/>
     </row>
-    <row r="293" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -13492,7 +13508,7 @@
       <c r="AP293" s="3"/>
       <c r="AQ293" s="3"/>
     </row>
-    <row r="294" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -13535,7 +13551,7 @@
       <c r="AP294" s="3"/>
       <c r="AQ294" s="3"/>
     </row>
-    <row r="295" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -13578,7 +13594,7 @@
       <c r="AP295" s="3"/>
       <c r="AQ295" s="3"/>
     </row>
-    <row r="296" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -13621,7 +13637,7 @@
       <c r="AP296" s="3"/>
       <c r="AQ296" s="3"/>
     </row>
-    <row r="297" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -13664,7 +13680,7 @@
       <c r="AP297" s="3"/>
       <c r="AQ297" s="3"/>
     </row>
-    <row r="298" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -13707,7 +13723,7 @@
       <c r="AP298" s="3"/>
       <c r="AQ298" s="3"/>
     </row>
-    <row r="299" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -13750,7 +13766,7 @@
       <c r="AP299" s="3"/>
       <c r="AQ299" s="3"/>
     </row>
-    <row r="300" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -13793,7 +13809,7 @@
       <c r="AP300" s="3"/>
       <c r="AQ300" s="3"/>
     </row>
-    <row r="301" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -13836,7 +13852,7 @@
       <c r="AP301" s="3"/>
       <c r="AQ301" s="3"/>
     </row>
-    <row r="302" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -13879,7 +13895,7 @@
       <c r="AP302" s="3"/>
       <c r="AQ302" s="3"/>
     </row>
-    <row r="303" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -13922,7 +13938,7 @@
       <c r="AP303" s="3"/>
       <c r="AQ303" s="3"/>
     </row>
-    <row r="304" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -13965,7 +13981,7 @@
       <c r="AP304" s="3"/>
       <c r="AQ304" s="3"/>
     </row>
-    <row r="305" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -14008,7 +14024,7 @@
       <c r="AP305" s="3"/>
       <c r="AQ305" s="3"/>
     </row>
-    <row r="306" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -14051,7 +14067,7 @@
       <c r="AP306" s="3"/>
       <c r="AQ306" s="3"/>
     </row>
-    <row r="307" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -14094,7 +14110,7 @@
       <c r="AP307" s="3"/>
       <c r="AQ307" s="3"/>
     </row>
-    <row r="308" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -14137,7 +14153,7 @@
       <c r="AP308" s="3"/>
       <c r="AQ308" s="3"/>
     </row>
-    <row r="309" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -14180,7 +14196,7 @@
       <c r="AP309" s="3"/>
       <c r="AQ309" s="3"/>
     </row>
-    <row r="310" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -14223,7 +14239,7 @@
       <c r="AP310" s="3"/>
       <c r="AQ310" s="3"/>
     </row>
-    <row r="311" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -14266,7 +14282,7 @@
       <c r="AP311" s="3"/>
       <c r="AQ311" s="3"/>
     </row>
-    <row r="312" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -14309,7 +14325,7 @@
       <c r="AP312" s="3"/>
       <c r="AQ312" s="3"/>
     </row>
-    <row r="313" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -14352,7 +14368,7 @@
       <c r="AP313" s="3"/>
       <c r="AQ313" s="3"/>
     </row>
-    <row r="314" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -14395,7 +14411,7 @@
       <c r="AP314" s="3"/>
       <c r="AQ314" s="3"/>
     </row>
-    <row r="315" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -14438,7 +14454,7 @@
       <c r="AP315" s="3"/>
       <c r="AQ315" s="3"/>
     </row>
-    <row r="316" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -14481,7 +14497,7 @@
       <c r="AP316" s="3"/>
       <c r="AQ316" s="3"/>
     </row>
-    <row r="317" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -14524,7 +14540,7 @@
       <c r="AP317" s="3"/>
       <c r="AQ317" s="3"/>
     </row>
-    <row r="318" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -14567,7 +14583,7 @@
       <c r="AP318" s="3"/>
       <c r="AQ318" s="3"/>
     </row>
-    <row r="319" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -14610,7 +14626,7 @@
       <c r="AP319" s="3"/>
       <c r="AQ319" s="3"/>
     </row>
-    <row r="320" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -14653,7 +14669,7 @@
       <c r="AP320" s="3"/>
       <c r="AQ320" s="3"/>
     </row>
-    <row r="321" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -14696,7 +14712,7 @@
       <c r="AP321" s="3"/>
       <c r="AQ321" s="3"/>
     </row>
-    <row r="322" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -14739,7 +14755,7 @@
       <c r="AP322" s="3"/>
       <c r="AQ322" s="3"/>
     </row>
-    <row r="323" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -14782,7 +14798,7 @@
       <c r="AP323" s="3"/>
       <c r="AQ323" s="3"/>
     </row>
-    <row r="324" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -14825,7 +14841,7 @@
       <c r="AP324" s="3"/>
       <c r="AQ324" s="3"/>
     </row>
-    <row r="325" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -14868,7 +14884,7 @@
       <c r="AP325" s="3"/>
       <c r="AQ325" s="3"/>
     </row>
-    <row r="326" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -14911,7 +14927,7 @@
       <c r="AP326" s="3"/>
       <c r="AQ326" s="3"/>
     </row>
-    <row r="327" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -14954,7 +14970,7 @@
       <c r="AP327" s="3"/>
       <c r="AQ327" s="3"/>
     </row>
-    <row r="328" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -14997,7 +15013,7 @@
       <c r="AP328" s="3"/>
       <c r="AQ328" s="3"/>
     </row>
-    <row r="329" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -15040,7 +15056,7 @@
       <c r="AP329" s="3"/>
       <c r="AQ329" s="3"/>
     </row>
-    <row r="330" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -15083,7 +15099,7 @@
       <c r="AP330" s="3"/>
       <c r="AQ330" s="3"/>
     </row>
-    <row r="331" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -15126,7 +15142,7 @@
       <c r="AP331" s="3"/>
       <c r="AQ331" s="3"/>
     </row>
-    <row r="332" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -15169,7 +15185,7 @@
       <c r="AP332" s="3"/>
       <c r="AQ332" s="3"/>
     </row>
-    <row r="333" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -15212,7 +15228,7 @@
       <c r="AP333" s="3"/>
       <c r="AQ333" s="3"/>
     </row>
-    <row r="334" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -15255,7 +15271,7 @@
       <c r="AP334" s="3"/>
       <c r="AQ334" s="3"/>
     </row>
-    <row r="335" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -15298,7 +15314,7 @@
       <c r="AP335" s="3"/>
       <c r="AQ335" s="3"/>
     </row>
-    <row r="336" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -15341,7 +15357,7 @@
       <c r="AP336" s="3"/>
       <c r="AQ336" s="3"/>
     </row>
-    <row r="337" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -15384,7 +15400,7 @@
       <c r="AP337" s="3"/>
       <c r="AQ337" s="3"/>
     </row>
-    <row r="338" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -15427,7 +15443,7 @@
       <c r="AP338" s="3"/>
       <c r="AQ338" s="3"/>
     </row>
-    <row r="339" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -15470,7 +15486,7 @@
       <c r="AP339" s="3"/>
       <c r="AQ339" s="3"/>
     </row>
-    <row r="340" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -15513,7 +15529,7 @@
       <c r="AP340" s="3"/>
       <c r="AQ340" s="3"/>
     </row>
-    <row r="341" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -15556,7 +15572,7 @@
       <c r="AP341" s="3"/>
       <c r="AQ341" s="3"/>
     </row>
-    <row r="342" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -15599,7 +15615,7 @@
       <c r="AP342" s="3"/>
       <c r="AQ342" s="3"/>
     </row>
-    <row r="343" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -15642,7 +15658,7 @@
       <c r="AP343" s="3"/>
       <c r="AQ343" s="3"/>
     </row>
-    <row r="344" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -15685,7 +15701,7 @@
       <c r="AP344" s="3"/>
       <c r="AQ344" s="3"/>
     </row>
-    <row r="345" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -15728,7 +15744,7 @@
       <c r="AP345" s="3"/>
       <c r="AQ345" s="3"/>
     </row>
-    <row r="346" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -15771,7 +15787,7 @@
       <c r="AP346" s="3"/>
       <c r="AQ346" s="3"/>
     </row>
-    <row r="347" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -15814,7 +15830,7 @@
       <c r="AP347" s="3"/>
       <c r="AQ347" s="3"/>
     </row>
-    <row r="348" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -15857,7 +15873,7 @@
       <c r="AP348" s="3"/>
       <c r="AQ348" s="3"/>
     </row>
-    <row r="349" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -15900,7 +15916,7 @@
       <c r="AP349" s="3"/>
       <c r="AQ349" s="3"/>
     </row>
-    <row r="350" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -15943,7 +15959,7 @@
       <c r="AP350" s="3"/>
       <c r="AQ350" s="3"/>
     </row>
-    <row r="351" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -15986,7 +16002,7 @@
       <c r="AP351" s="3"/>
       <c r="AQ351" s="3"/>
     </row>
-    <row r="352" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -16029,7 +16045,7 @@
       <c r="AP352" s="3"/>
       <c r="AQ352" s="3"/>
     </row>
-    <row r="353" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -16072,7 +16088,7 @@
       <c r="AP353" s="3"/>
       <c r="AQ353" s="3"/>
     </row>
-    <row r="354" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -16115,7 +16131,7 @@
       <c r="AP354" s="3"/>
       <c r="AQ354" s="3"/>
     </row>
-    <row r="355" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -16158,7 +16174,7 @@
       <c r="AP355" s="3"/>
       <c r="AQ355" s="3"/>
     </row>
-    <row r="356" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -16201,7 +16217,7 @@
       <c r="AP356" s="3"/>
       <c r="AQ356" s="3"/>
     </row>
-    <row r="357" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -16244,7 +16260,7 @@
       <c r="AP357" s="3"/>
       <c r="AQ357" s="3"/>
     </row>
-    <row r="358" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -16287,7 +16303,7 @@
       <c r="AP358" s="3"/>
       <c r="AQ358" s="3"/>
     </row>
-    <row r="359" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -16330,7 +16346,7 @@
       <c r="AP359" s="3"/>
       <c r="AQ359" s="3"/>
     </row>
-    <row r="360" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -16373,7 +16389,7 @@
       <c r="AP360" s="3"/>
       <c r="AQ360" s="3"/>
     </row>
-    <row r="361" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -16416,7 +16432,7 @@
       <c r="AP361" s="3"/>
       <c r="AQ361" s="3"/>
     </row>
-    <row r="362" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -16459,7 +16475,7 @@
       <c r="AP362" s="3"/>
       <c r="AQ362" s="3"/>
     </row>
-    <row r="363" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -16502,7 +16518,7 @@
       <c r="AP363" s="3"/>
       <c r="AQ363" s="3"/>
     </row>
-    <row r="364" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -16545,7 +16561,7 @@
       <c r="AP364" s="3"/>
       <c r="AQ364" s="3"/>
     </row>
-    <row r="365" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -16588,7 +16604,7 @@
       <c r="AP365" s="3"/>
       <c r="AQ365" s="3"/>
     </row>
-    <row r="366" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -16631,7 +16647,7 @@
       <c r="AP366" s="3"/>
       <c r="AQ366" s="3"/>
     </row>
-    <row r="367" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -16674,7 +16690,7 @@
       <c r="AP367" s="3"/>
       <c r="AQ367" s="3"/>
     </row>
-    <row r="368" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -16717,7 +16733,7 @@
       <c r="AP368" s="3"/>
       <c r="AQ368" s="3"/>
     </row>
-    <row r="369" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -16760,7 +16776,7 @@
       <c r="AP369" s="3"/>
       <c r="AQ369" s="3"/>
     </row>
-    <row r="370" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -16803,7 +16819,7 @@
       <c r="AP370" s="3"/>
       <c r="AQ370" s="3"/>
     </row>
-    <row r="371" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -16846,7 +16862,7 @@
       <c r="AP371" s="3"/>
       <c r="AQ371" s="3"/>
     </row>
-    <row r="372" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -16889,7 +16905,7 @@
       <c r="AP372" s="3"/>
       <c r="AQ372" s="3"/>
     </row>
-    <row r="373" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -16932,7 +16948,7 @@
       <c r="AP373" s="3"/>
       <c r="AQ373" s="3"/>
     </row>
-    <row r="374" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -16975,7 +16991,7 @@
       <c r="AP374" s="3"/>
       <c r="AQ374" s="3"/>
     </row>
-    <row r="375" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -17018,7 +17034,7 @@
       <c r="AP375" s="3"/>
       <c r="AQ375" s="3"/>
     </row>
-    <row r="376" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -17061,7 +17077,7 @@
       <c r="AP376" s="3"/>
       <c r="AQ376" s="3"/>
     </row>
-    <row r="377" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -17104,7 +17120,7 @@
       <c r="AP377" s="3"/>
       <c r="AQ377" s="3"/>
     </row>
-    <row r="378" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -17147,7 +17163,7 @@
       <c r="AP378" s="3"/>
       <c r="AQ378" s="3"/>
     </row>
-    <row r="379" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -17190,7 +17206,7 @@
       <c r="AP379" s="3"/>
       <c r="AQ379" s="3"/>
     </row>
-    <row r="380" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -17233,7 +17249,7 @@
       <c r="AP380" s="3"/>
       <c r="AQ380" s="3"/>
     </row>
-    <row r="381" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -17276,7 +17292,7 @@
       <c r="AP381" s="3"/>
       <c r="AQ381" s="3"/>
     </row>
-    <row r="382" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -17319,7 +17335,7 @@
       <c r="AP382" s="3"/>
       <c r="AQ382" s="3"/>
     </row>
-    <row r="383" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -17362,7 +17378,7 @@
       <c r="AP383" s="3"/>
       <c r="AQ383" s="3"/>
     </row>
-    <row r="384" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -17405,7 +17421,7 @@
       <c r="AP384" s="3"/>
       <c r="AQ384" s="3"/>
     </row>
-    <row r="385" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -17448,7 +17464,7 @@
       <c r="AP385" s="3"/>
       <c r="AQ385" s="3"/>
     </row>
-    <row r="386" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -17491,7 +17507,7 @@
       <c r="AP386" s="3"/>
       <c r="AQ386" s="3"/>
     </row>
-    <row r="387" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -17534,7 +17550,7 @@
       <c r="AP387" s="3"/>
       <c r="AQ387" s="3"/>
     </row>
-    <row r="388" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -17577,7 +17593,7 @@
       <c r="AP388" s="3"/>
       <c r="AQ388" s="3"/>
     </row>
-    <row r="389" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -17620,7 +17636,7 @@
       <c r="AP389" s="3"/>
       <c r="AQ389" s="3"/>
     </row>
-    <row r="390" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -17663,7 +17679,7 @@
       <c r="AP390" s="3"/>
       <c r="AQ390" s="3"/>
     </row>
-    <row r="391" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -17706,7 +17722,7 @@
       <c r="AP391" s="3"/>
       <c r="AQ391" s="3"/>
     </row>
-    <row r="392" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -17749,7 +17765,7 @@
       <c r="AP392" s="3"/>
       <c r="AQ392" s="3"/>
     </row>
-    <row r="393" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -17792,7 +17808,7 @@
       <c r="AP393" s="3"/>
       <c r="AQ393" s="3"/>
     </row>
-    <row r="394" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -17835,7 +17851,7 @@
       <c r="AP394" s="3"/>
       <c r="AQ394" s="3"/>
     </row>
-    <row r="395" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -17878,7 +17894,7 @@
       <c r="AP395" s="3"/>
       <c r="AQ395" s="3"/>
     </row>
-    <row r="396" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -17921,7 +17937,7 @@
       <c r="AP396" s="3"/>
       <c r="AQ396" s="3"/>
     </row>
-    <row r="397" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -17964,7 +17980,7 @@
       <c r="AP397" s="3"/>
       <c r="AQ397" s="3"/>
     </row>
-    <row r="398" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -18007,7 +18023,7 @@
       <c r="AP398" s="3"/>
       <c r="AQ398" s="3"/>
     </row>
-    <row r="399" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -18050,7 +18066,7 @@
       <c r="AP399" s="3"/>
       <c r="AQ399" s="3"/>
     </row>
-    <row r="400" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -18093,7 +18109,7 @@
       <c r="AP400" s="3"/>
       <c r="AQ400" s="3"/>
     </row>
-    <row r="401" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -18136,7 +18152,7 @@
       <c r="AP401" s="3"/>
       <c r="AQ401" s="3"/>
     </row>
-    <row r="402" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -18179,7 +18195,7 @@
       <c r="AP402" s="3"/>
       <c r="AQ402" s="3"/>
     </row>
-    <row r="403" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -18222,7 +18238,7 @@
       <c r="AP403" s="3"/>
       <c r="AQ403" s="3"/>
     </row>
-    <row r="404" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -18265,7 +18281,7 @@
       <c r="AP404" s="3"/>
       <c r="AQ404" s="3"/>
     </row>
-    <row r="405" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -18308,7 +18324,7 @@
       <c r="AP405" s="3"/>
       <c r="AQ405" s="3"/>
     </row>
-    <row r="406" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -18351,7 +18367,7 @@
       <c r="AP406" s="3"/>
       <c r="AQ406" s="3"/>
     </row>
-    <row r="407" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -18394,7 +18410,7 @@
       <c r="AP407" s="3"/>
       <c r="AQ407" s="3"/>
     </row>
-    <row r="408" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -18437,7 +18453,7 @@
       <c r="AP408" s="3"/>
       <c r="AQ408" s="3"/>
     </row>
-    <row r="409" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -18480,7 +18496,7 @@
       <c r="AP409" s="3"/>
       <c r="AQ409" s="3"/>
     </row>
-    <row r="410" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -18523,7 +18539,7 @@
       <c r="AP410" s="3"/>
       <c r="AQ410" s="3"/>
     </row>
-    <row r="411" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -18566,7 +18582,7 @@
       <c r="AP411" s="3"/>
       <c r="AQ411" s="3"/>
     </row>
-    <row r="412" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -18609,7 +18625,7 @@
       <c r="AP412" s="3"/>
       <c r="AQ412" s="3"/>
     </row>
-    <row r="413" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -18652,7 +18668,7 @@
       <c r="AP413" s="3"/>
       <c r="AQ413" s="3"/>
     </row>
-    <row r="414" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -18695,7 +18711,7 @@
       <c r="AP414" s="3"/>
       <c r="AQ414" s="3"/>
     </row>
-    <row r="415" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -18738,7 +18754,7 @@
       <c r="AP415" s="3"/>
       <c r="AQ415" s="3"/>
     </row>
-    <row r="416" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -18781,7 +18797,7 @@
       <c r="AP416" s="3"/>
       <c r="AQ416" s="3"/>
     </row>
-    <row r="417" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -18824,7 +18840,7 @@
       <c r="AP417" s="3"/>
       <c r="AQ417" s="3"/>
     </row>
-    <row r="418" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -18867,7 +18883,7 @@
       <c r="AP418" s="3"/>
       <c r="AQ418" s="3"/>
     </row>
-    <row r="419" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -18910,7 +18926,7 @@
       <c r="AP419" s="3"/>
       <c r="AQ419" s="3"/>
     </row>
-    <row r="420" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -18953,7 +18969,7 @@
       <c r="AP420" s="3"/>
       <c r="AQ420" s="3"/>
     </row>
-    <row r="421" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -18996,7 +19012,7 @@
       <c r="AP421" s="3"/>
       <c r="AQ421" s="3"/>
     </row>
-    <row r="422" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -19039,7 +19055,7 @@
       <c r="AP422" s="3"/>
       <c r="AQ422" s="3"/>
     </row>
-    <row r="423" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -19082,7 +19098,7 @@
       <c r="AP423" s="3"/>
       <c r="AQ423" s="3"/>
     </row>
-    <row r="424" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -19125,7 +19141,7 @@
       <c r="AP424" s="3"/>
       <c r="AQ424" s="3"/>
     </row>
-    <row r="425" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -19168,7 +19184,7 @@
       <c r="AP425" s="3"/>
       <c r="AQ425" s="3"/>
     </row>
-    <row r="426" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -19211,7 +19227,7 @@
       <c r="AP426" s="3"/>
       <c r="AQ426" s="3"/>
     </row>
-    <row r="427" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -19254,7 +19270,7 @@
       <c r="AP427" s="3"/>
       <c r="AQ427" s="3"/>
     </row>
-    <row r="428" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -19297,7 +19313,7 @@
       <c r="AP428" s="3"/>
       <c r="AQ428" s="3"/>
     </row>
-    <row r="429" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -19340,7 +19356,7 @@
       <c r="AP429" s="3"/>
       <c r="AQ429" s="3"/>
     </row>
-    <row r="430" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -19383,7 +19399,7 @@
       <c r="AP430" s="3"/>
       <c r="AQ430" s="3"/>
     </row>
-    <row r="431" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -19426,7 +19442,7 @@
       <c r="AP431" s="3"/>
       <c r="AQ431" s="3"/>
     </row>
-    <row r="432" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -19469,7 +19485,7 @@
       <c r="AP432" s="3"/>
       <c r="AQ432" s="3"/>
     </row>
-    <row r="433" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -19512,7 +19528,7 @@
       <c r="AP433" s="3"/>
       <c r="AQ433" s="3"/>
     </row>
-    <row r="434" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -19555,7 +19571,7 @@
       <c r="AP434" s="3"/>
       <c r="AQ434" s="3"/>
     </row>
-    <row r="435" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -19598,7 +19614,7 @@
       <c r="AP435" s="3"/>
       <c r="AQ435" s="3"/>
     </row>
-    <row r="436" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -19641,7 +19657,7 @@
       <c r="AP436" s="3"/>
       <c r="AQ436" s="3"/>
     </row>
-    <row r="437" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -19684,7 +19700,7 @@
       <c r="AP437" s="3"/>
       <c r="AQ437" s="3"/>
     </row>
-    <row r="438" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -19727,7 +19743,7 @@
       <c r="AP438" s="3"/>
       <c r="AQ438" s="3"/>
     </row>
-    <row r="439" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -19770,7 +19786,7 @@
       <c r="AP439" s="3"/>
       <c r="AQ439" s="3"/>
     </row>
-    <row r="440" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -19813,7 +19829,7 @@
       <c r="AP440" s="3"/>
       <c r="AQ440" s="3"/>
     </row>
-    <row r="441" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -19856,7 +19872,7 @@
       <c r="AP441" s="3"/>
       <c r="AQ441" s="3"/>
     </row>
-    <row r="442" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -19899,7 +19915,7 @@
       <c r="AP442" s="3"/>
       <c r="AQ442" s="3"/>
     </row>
-    <row r="443" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -19942,7 +19958,7 @@
       <c r="AP443" s="3"/>
       <c r="AQ443" s="3"/>
     </row>
-    <row r="444" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -19985,7 +20001,7 @@
       <c r="AP444" s="3"/>
       <c r="AQ444" s="3"/>
     </row>
-    <row r="445" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -20028,7 +20044,7 @@
       <c r="AP445" s="3"/>
       <c r="AQ445" s="3"/>
     </row>
-    <row r="446" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -20071,7 +20087,7 @@
       <c r="AP446" s="3"/>
       <c r="AQ446" s="3"/>
     </row>
-    <row r="447" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -20114,7 +20130,7 @@
       <c r="AP447" s="3"/>
       <c r="AQ447" s="3"/>
     </row>
-    <row r="448" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -20157,7 +20173,7 @@
       <c r="AP448" s="3"/>
       <c r="AQ448" s="3"/>
     </row>
-    <row r="449" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -20200,7 +20216,7 @@
       <c r="AP449" s="3"/>
       <c r="AQ449" s="3"/>
     </row>
-    <row r="450" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -20243,7 +20259,7 @@
       <c r="AP450" s="3"/>
       <c r="AQ450" s="3"/>
     </row>
-    <row r="451" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -20286,7 +20302,7 @@
       <c r="AP451" s="3"/>
       <c r="AQ451" s="3"/>
     </row>
-    <row r="452" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -20329,7 +20345,7 @@
       <c r="AP452" s="3"/>
       <c r="AQ452" s="3"/>
     </row>
-    <row r="453" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -20372,7 +20388,7 @@
       <c r="AP453" s="3"/>
       <c r="AQ453" s="3"/>
     </row>
-    <row r="454" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -20415,7 +20431,7 @@
       <c r="AP454" s="3"/>
       <c r="AQ454" s="3"/>
     </row>
-    <row r="455" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -20458,7 +20474,7 @@
       <c r="AP455" s="3"/>
       <c r="AQ455" s="3"/>
     </row>
-    <row r="456" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -20501,7 +20517,7 @@
       <c r="AP456" s="3"/>
       <c r="AQ456" s="3"/>
     </row>
-    <row r="457" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
       <c r="E457" s="3"/>
@@ -20544,7 +20560,7 @@
       <c r="AP457" s="3"/>
       <c r="AQ457" s="3"/>
     </row>
-    <row r="458" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
       <c r="E458" s="3"/>
@@ -20587,7 +20603,7 @@
       <c r="AP458" s="3"/>
       <c r="AQ458" s="3"/>
     </row>
-    <row r="459" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -20630,7 +20646,7 @@
       <c r="AP459" s="3"/>
       <c r="AQ459" s="3"/>
     </row>
-    <row r="460" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -20673,7 +20689,7 @@
       <c r="AP460" s="3"/>
       <c r="AQ460" s="3"/>
     </row>
-    <row r="461" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -20716,7 +20732,7 @@
       <c r="AP461" s="3"/>
       <c r="AQ461" s="3"/>
     </row>
-    <row r="462" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
       <c r="E462" s="3"/>
@@ -20759,7 +20775,7 @@
       <c r="AP462" s="3"/>
       <c r="AQ462" s="3"/>
     </row>
-    <row r="463" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
       <c r="E463" s="3"/>
@@ -20802,7 +20818,7 @@
       <c r="AP463" s="3"/>
       <c r="AQ463" s="3"/>
     </row>
-    <row r="464" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -20845,7 +20861,7 @@
       <c r="AP464" s="3"/>
       <c r="AQ464" s="3"/>
     </row>
-    <row r="465" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -20888,7 +20904,7 @@
       <c r="AP465" s="3"/>
       <c r="AQ465" s="3"/>
     </row>
-    <row r="466" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -20931,7 +20947,7 @@
       <c r="AP466" s="3"/>
       <c r="AQ466" s="3"/>
     </row>
-    <row r="467" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
       <c r="E467" s="3"/>
@@ -20974,7 +20990,7 @@
       <c r="AP467" s="3"/>
       <c r="AQ467" s="3"/>
     </row>
-    <row r="468" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
       <c r="E468" s="3"/>
@@ -21017,7 +21033,7 @@
       <c r="AP468" s="3"/>
       <c r="AQ468" s="3"/>
     </row>
-    <row r="469" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -21060,7 +21076,7 @@
       <c r="AP469" s="3"/>
       <c r="AQ469" s="3"/>
     </row>
-    <row r="470" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -21103,7 +21119,7 @@
       <c r="AP470" s="3"/>
       <c r="AQ470" s="3"/>
     </row>
-    <row r="471" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -21146,7 +21162,7 @@
       <c r="AP471" s="3"/>
       <c r="AQ471" s="3"/>
     </row>
-    <row r="472" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
       <c r="E472" s="3"/>
@@ -21189,7 +21205,7 @@
       <c r="AP472" s="3"/>
       <c r="AQ472" s="3"/>
     </row>
-    <row r="473" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
       <c r="E473" s="3"/>
@@ -21232,7 +21248,7 @@
       <c r="AP473" s="3"/>
       <c r="AQ473" s="3"/>
     </row>
-    <row r="474" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -21275,7 +21291,7 @@
       <c r="AP474" s="3"/>
       <c r="AQ474" s="3"/>
     </row>
-    <row r="475" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -21318,7 +21334,7 @@
       <c r="AP475" s="3"/>
       <c r="AQ475" s="3"/>
     </row>
-    <row r="476" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -21361,7 +21377,7 @@
       <c r="AP476" s="3"/>
       <c r="AQ476" s="3"/>
     </row>
-    <row r="477" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
       <c r="E477" s="3"/>
@@ -21404,7 +21420,7 @@
       <c r="AP477" s="3"/>
       <c r="AQ477" s="3"/>
     </row>
-    <row r="478" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
       <c r="E478" s="3"/>
@@ -21447,7 +21463,7 @@
       <c r="AP478" s="3"/>
       <c r="AQ478" s="3"/>
     </row>
-    <row r="479" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -21490,7 +21506,7 @@
       <c r="AP479" s="3"/>
       <c r="AQ479" s="3"/>
     </row>
-    <row r="480" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -21533,7 +21549,7 @@
       <c r="AP480" s="3"/>
       <c r="AQ480" s="3"/>
     </row>
-    <row r="481" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -21576,7 +21592,7 @@
       <c r="AP481" s="3"/>
       <c r="AQ481" s="3"/>
     </row>
-    <row r="482" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
       <c r="E482" s="3"/>
@@ -21619,7 +21635,7 @@
       <c r="AP482" s="3"/>
       <c r="AQ482" s="3"/>
     </row>
-    <row r="483" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
       <c r="E483" s="3"/>
@@ -21662,7 +21678,7 @@
       <c r="AP483" s="3"/>
       <c r="AQ483" s="3"/>
     </row>
-    <row r="484" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -21705,7 +21721,7 @@
       <c r="AP484" s="3"/>
       <c r="AQ484" s="3"/>
     </row>
-    <row r="485" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -21748,7 +21764,7 @@
       <c r="AP485" s="3"/>
       <c r="AQ485" s="3"/>
     </row>
-    <row r="486" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -21791,7 +21807,7 @@
       <c r="AP486" s="3"/>
       <c r="AQ486" s="3"/>
     </row>
-    <row r="487" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
       <c r="E487" s="3"/>
@@ -21834,7 +21850,7 @@
       <c r="AP487" s="3"/>
       <c r="AQ487" s="3"/>
     </row>
-    <row r="488" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
       <c r="E488" s="3"/>
@@ -21877,7 +21893,7 @@
       <c r="AP488" s="3"/>
       <c r="AQ488" s="3"/>
     </row>
-    <row r="489" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
       <c r="E489" s="3"/>
@@ -21920,7 +21936,7 @@
       <c r="AP489" s="3"/>
       <c r="AQ489" s="3"/>
     </row>
-    <row r="490" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
       <c r="E490" s="3"/>
@@ -21963,7 +21979,7 @@
       <c r="AP490" s="3"/>
       <c r="AQ490" s="3"/>
     </row>
-    <row r="491" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
       <c r="E491" s="3"/>
@@ -22006,7 +22022,7 @@
       <c r="AP491" s="3"/>
       <c r="AQ491" s="3"/>
     </row>
-    <row r="492" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
       <c r="E492" s="3"/>
@@ -22049,7 +22065,7 @@
       <c r="AP492" s="3"/>
       <c r="AQ492" s="3"/>
     </row>
-    <row r="493" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
       <c r="E493" s="3"/>
@@ -22092,7 +22108,7 @@
       <c r="AP493" s="3"/>
       <c r="AQ493" s="3"/>
     </row>
-    <row r="494" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
       <c r="E494" s="3"/>
@@ -22135,7 +22151,7 @@
       <c r="AP494" s="3"/>
       <c r="AQ494" s="3"/>
     </row>
-    <row r="495" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
@@ -22178,7 +22194,7 @@
       <c r="AP495" s="3"/>
       <c r="AQ495" s="3"/>
     </row>
-    <row r="496" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
       <c r="E496" s="3"/>
@@ -22221,7 +22237,7 @@
       <c r="AP496" s="3"/>
       <c r="AQ496" s="3"/>
     </row>
-    <row r="497" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
       <c r="E497" s="3"/>
@@ -22264,7 +22280,7 @@
       <c r="AP497" s="3"/>
       <c r="AQ497" s="3"/>
     </row>
-    <row r="498" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
       <c r="E498" s="3"/>
@@ -22307,7 +22323,7 @@
       <c r="AP498" s="3"/>
       <c r="AQ498" s="3"/>
     </row>
-    <row r="499" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
       <c r="E499" s="3"/>
@@ -22350,7 +22366,7 @@
       <c r="AP499" s="3"/>
       <c r="AQ499" s="3"/>
     </row>
-    <row r="500" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
       <c r="E500" s="3"/>
@@ -22393,7 +22409,7 @@
       <c r="AP500" s="3"/>
       <c r="AQ500" s="3"/>
     </row>
-    <row r="501" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
       <c r="E501" s="3"/>
@@ -22436,7 +22452,7 @@
       <c r="AP501" s="3"/>
       <c r="AQ501" s="3"/>
     </row>
-    <row r="502" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
       <c r="E502" s="3"/>
@@ -22479,7 +22495,7 @@
       <c r="AP502" s="3"/>
       <c r="AQ502" s="3"/>
     </row>
-    <row r="503" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
       <c r="E503" s="3"/>
@@ -22522,7 +22538,7 @@
       <c r="AP503" s="3"/>
       <c r="AQ503" s="3"/>
     </row>
-    <row r="504" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
       <c r="E504" s="3"/>
@@ -22565,7 +22581,7 @@
       <c r="AP504" s="3"/>
       <c r="AQ504" s="3"/>
     </row>
-    <row r="505" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
       <c r="E505" s="3"/>
@@ -22608,7 +22624,7 @@
       <c r="AP505" s="3"/>
       <c r="AQ505" s="3"/>
     </row>
-    <row r="506" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
       <c r="E506" s="3"/>
@@ -22651,7 +22667,7 @@
       <c r="AP506" s="3"/>
       <c r="AQ506" s="3"/>
     </row>
-    <row r="507" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
       <c r="E507" s="3"/>
@@ -22694,7 +22710,7 @@
       <c r="AP507" s="3"/>
       <c r="AQ507" s="3"/>
     </row>
-    <row r="508" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
       <c r="E508" s="3"/>
@@ -22737,7 +22753,7 @@
       <c r="AP508" s="3"/>
       <c r="AQ508" s="3"/>
     </row>
-    <row r="509" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
       <c r="E509" s="3"/>
@@ -22780,7 +22796,7 @@
       <c r="AP509" s="3"/>
       <c r="AQ509" s="3"/>
     </row>
-    <row r="510" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
       <c r="E510" s="3"/>
@@ -22823,7 +22839,7 @@
       <c r="AP510" s="3"/>
       <c r="AQ510" s="3"/>
     </row>
-    <row r="511" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
       <c r="E511" s="3"/>
@@ -22866,7 +22882,7 @@
       <c r="AP511" s="3"/>
       <c r="AQ511" s="3"/>
     </row>
-    <row r="512" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
       <c r="E512" s="3"/>
@@ -22909,7 +22925,7 @@
       <c r="AP512" s="3"/>
       <c r="AQ512" s="3"/>
     </row>
-    <row r="513" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
       <c r="E513" s="3"/>
@@ -22952,7 +22968,7 @@
       <c r="AP513" s="3"/>
       <c r="AQ513" s="3"/>
     </row>
-    <row r="514" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
       <c r="E514" s="3"/>
@@ -22995,7 +23011,7 @@
       <c r="AP514" s="3"/>
       <c r="AQ514" s="3"/>
     </row>
-    <row r="515" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
       <c r="E515" s="3"/>
@@ -23038,7 +23054,7 @@
       <c r="AP515" s="3"/>
       <c r="AQ515" s="3"/>
     </row>
-    <row r="516" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
       <c r="E516" s="3"/>
@@ -23081,7 +23097,7 @@
       <c r="AP516" s="3"/>
       <c r="AQ516" s="3"/>
     </row>
-    <row r="517" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
       <c r="E517" s="3"/>
@@ -23124,7 +23140,7 @@
       <c r="AP517" s="3"/>
       <c r="AQ517" s="3"/>
     </row>
-    <row r="518" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
       <c r="E518" s="3"/>
@@ -23167,7 +23183,7 @@
       <c r="AP518" s="3"/>
       <c r="AQ518" s="3"/>
     </row>
-    <row r="519" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
       <c r="E519" s="3"/>
@@ -23210,7 +23226,7 @@
       <c r="AP519" s="3"/>
       <c r="AQ519" s="3"/>
     </row>
-    <row r="520" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
       <c r="E520" s="3"/>
@@ -23253,7 +23269,7 @@
       <c r="AP520" s="3"/>
       <c r="AQ520" s="3"/>
     </row>
-    <row r="521" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
       <c r="E521" s="3"/>
@@ -23296,7 +23312,7 @@
       <c r="AP521" s="3"/>
       <c r="AQ521" s="3"/>
     </row>
-    <row r="522" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
       <c r="E522" s="3"/>
@@ -23339,7 +23355,7 @@
       <c r="AP522" s="3"/>
       <c r="AQ522" s="3"/>
     </row>
-    <row r="523" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
       <c r="E523" s="3"/>
@@ -23382,7 +23398,7 @@
       <c r="AP523" s="3"/>
       <c r="AQ523" s="3"/>
     </row>
-    <row r="524" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
       <c r="E524" s="3"/>
@@ -23425,7 +23441,7 @@
       <c r="AP524" s="3"/>
       <c r="AQ524" s="3"/>
     </row>
-    <row r="525" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
       <c r="E525" s="3"/>
@@ -23468,7 +23484,7 @@
       <c r="AP525" s="3"/>
       <c r="AQ525" s="3"/>
     </row>
-    <row r="526" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
       <c r="E526" s="3"/>
@@ -23511,7 +23527,7 @@
       <c r="AP526" s="3"/>
       <c r="AQ526" s="3"/>
     </row>
-    <row r="527" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
       <c r="E527" s="3"/>
@@ -23554,7 +23570,7 @@
       <c r="AP527" s="3"/>
       <c r="AQ527" s="3"/>
     </row>
-    <row r="528" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
       <c r="E528" s="3"/>
@@ -23597,7 +23613,7 @@
       <c r="AP528" s="3"/>
       <c r="AQ528" s="3"/>
     </row>
-    <row r="529" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
       <c r="E529" s="3"/>
@@ -23640,7 +23656,7 @@
       <c r="AP529" s="3"/>
       <c r="AQ529" s="3"/>
     </row>
-    <row r="530" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
       <c r="E530" s="3"/>
@@ -23683,7 +23699,7 @@
       <c r="AP530" s="3"/>
       <c r="AQ530" s="3"/>
     </row>
-    <row r="531" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
       <c r="E531" s="3"/>
@@ -23726,7 +23742,7 @@
       <c r="AP531" s="3"/>
       <c r="AQ531" s="3"/>
     </row>
-    <row r="532" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
       <c r="E532" s="3"/>
@@ -23769,7 +23785,7 @@
       <c r="AP532" s="3"/>
       <c r="AQ532" s="3"/>
     </row>
-    <row r="533" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
       <c r="E533" s="3"/>
@@ -23812,7 +23828,7 @@
       <c r="AP533" s="3"/>
       <c r="AQ533" s="3"/>
     </row>
-    <row r="534" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
       <c r="E534" s="3"/>
@@ -23855,7 +23871,7 @@
       <c r="AP534" s="3"/>
       <c r="AQ534" s="3"/>
     </row>
-    <row r="535" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
       <c r="E535" s="3"/>
@@ -23898,7 +23914,7 @@
       <c r="AP535" s="3"/>
       <c r="AQ535" s="3"/>
     </row>
-    <row r="536" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
       <c r="E536" s="3"/>
@@ -23941,7 +23957,7 @@
       <c r="AP536" s="3"/>
       <c r="AQ536" s="3"/>
     </row>
-    <row r="537" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
       <c r="E537" s="3"/>
@@ -23984,7 +24000,7 @@
       <c r="AP537" s="3"/>
       <c r="AQ537" s="3"/>
     </row>
-    <row r="538" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
       <c r="E538" s="3"/>
@@ -24027,7 +24043,7 @@
       <c r="AP538" s="3"/>
       <c r="AQ538" s="3"/>
     </row>
-    <row r="539" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
       <c r="E539" s="3"/>
@@ -24070,7 +24086,7 @@
       <c r="AP539" s="3"/>
       <c r="AQ539" s="3"/>
     </row>
-    <row r="540" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
       <c r="E540" s="3"/>
@@ -24113,7 +24129,7 @@
       <c r="AP540" s="3"/>
       <c r="AQ540" s="3"/>
     </row>
-    <row r="541" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
       <c r="E541" s="3"/>
@@ -24156,7 +24172,7 @@
       <c r="AP541" s="3"/>
       <c r="AQ541" s="3"/>
     </row>
-    <row r="542" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
       <c r="E542" s="3"/>
@@ -24199,7 +24215,7 @@
       <c r="AP542" s="3"/>
       <c r="AQ542" s="3"/>
     </row>
-    <row r="543" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
       <c r="E543" s="3"/>
@@ -24242,7 +24258,7 @@
       <c r="AP543" s="3"/>
       <c r="AQ543" s="3"/>
     </row>
-    <row r="544" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
       <c r="E544" s="3"/>
@@ -24285,7 +24301,7 @@
       <c r="AP544" s="3"/>
       <c r="AQ544" s="3"/>
     </row>
-    <row r="545" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
       <c r="E545" s="3"/>
@@ -24328,7 +24344,7 @@
       <c r="AP545" s="3"/>
       <c r="AQ545" s="3"/>
     </row>
-    <row r="546" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
       <c r="E546" s="3"/>
@@ -24371,7 +24387,7 @@
       <c r="AP546" s="3"/>
       <c r="AQ546" s="3"/>
     </row>
-    <row r="547" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
       <c r="E547" s="3"/>
@@ -24414,7 +24430,7 @@
       <c r="AP547" s="3"/>
       <c r="AQ547" s="3"/>
     </row>
-    <row r="548" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
       <c r="E548" s="3"/>
@@ -24457,7 +24473,7 @@
       <c r="AP548" s="3"/>
       <c r="AQ548" s="3"/>
     </row>
-    <row r="549" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
       <c r="E549" s="3"/>
@@ -24500,7 +24516,7 @@
       <c r="AP549" s="3"/>
       <c r="AQ549" s="3"/>
     </row>
-    <row r="550" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
       <c r="E550" s="3"/>
@@ -24543,7 +24559,7 @@
       <c r="AP550" s="3"/>
       <c r="AQ550" s="3"/>
     </row>
-    <row r="551" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
       <c r="E551" s="3"/>
@@ -24586,7 +24602,7 @@
       <c r="AP551" s="3"/>
       <c r="AQ551" s="3"/>
     </row>
-    <row r="552" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
       <c r="E552" s="3"/>
@@ -24629,7 +24645,7 @@
       <c r="AP552" s="3"/>
       <c r="AQ552" s="3"/>
     </row>
-    <row r="553" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
       <c r="E553" s="3"/>
@@ -24672,7 +24688,7 @@
       <c r="AP553" s="3"/>
       <c r="AQ553" s="3"/>
     </row>
-    <row r="554" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
       <c r="E554" s="3"/>
@@ -24715,7 +24731,7 @@
       <c r="AP554" s="3"/>
       <c r="AQ554" s="3"/>
     </row>
-    <row r="555" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
       <c r="E555" s="3"/>
@@ -24758,7 +24774,7 @@
       <c r="AP555" s="3"/>
       <c r="AQ555" s="3"/>
     </row>
-    <row r="556" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
       <c r="E556" s="3"/>
@@ -24801,7 +24817,7 @@
       <c r="AP556" s="3"/>
       <c r="AQ556" s="3"/>
     </row>
-    <row r="557" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
       <c r="E557" s="3"/>
@@ -24844,7 +24860,7 @@
       <c r="AP557" s="3"/>
       <c r="AQ557" s="3"/>
     </row>
-    <row r="558" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
       <c r="E558" s="3"/>
@@ -24887,7 +24903,7 @@
       <c r="AP558" s="3"/>
       <c r="AQ558" s="3"/>
     </row>
-    <row r="559" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
       <c r="E559" s="3"/>
@@ -24930,7 +24946,7 @@
       <c r="AP559" s="3"/>
       <c r="AQ559" s="3"/>
     </row>
-    <row r="560" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
       <c r="E560" s="3"/>
@@ -24973,7 +24989,7 @@
       <c r="AP560" s="3"/>
       <c r="AQ560" s="3"/>
     </row>
-    <row r="561" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
       <c r="E561" s="3"/>
@@ -25016,7 +25032,7 @@
       <c r="AP561" s="3"/>
       <c r="AQ561" s="3"/>
     </row>
-    <row r="562" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
       <c r="E562" s="3"/>
@@ -25059,7 +25075,7 @@
       <c r="AP562" s="3"/>
       <c r="AQ562" s="3"/>
     </row>
-    <row r="563" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
       <c r="E563" s="3"/>
@@ -25102,7 +25118,7 @@
       <c r="AP563" s="3"/>
       <c r="AQ563" s="3"/>
     </row>
-    <row r="564" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
       <c r="E564" s="3"/>
@@ -25145,7 +25161,7 @@
       <c r="AP564" s="3"/>
       <c r="AQ564" s="3"/>
     </row>
-    <row r="565" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
       <c r="E565" s="3"/>
@@ -25188,7 +25204,7 @@
       <c r="AP565" s="3"/>
       <c r="AQ565" s="3"/>
     </row>
-    <row r="566" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
       <c r="E566" s="3"/>
@@ -25231,7 +25247,7 @@
       <c r="AP566" s="3"/>
       <c r="AQ566" s="3"/>
     </row>
-    <row r="567" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
       <c r="E567" s="3"/>
@@ -25274,7 +25290,7 @@
       <c r="AP567" s="3"/>
       <c r="AQ567" s="3"/>
     </row>
-    <row r="568" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
       <c r="E568" s="3"/>
@@ -25317,7 +25333,7 @@
       <c r="AP568" s="3"/>
       <c r="AQ568" s="3"/>
     </row>
-    <row r="569" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
       <c r="E569" s="3"/>
@@ -25360,7 +25376,7 @@
       <c r="AP569" s="3"/>
       <c r="AQ569" s="3"/>
     </row>
-    <row r="570" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
       <c r="E570" s="3"/>
@@ -25403,7 +25419,7 @@
       <c r="AP570" s="3"/>
       <c r="AQ570" s="3"/>
     </row>
-    <row r="571" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
       <c r="E571" s="3"/>
@@ -25446,7 +25462,7 @@
       <c r="AP571" s="3"/>
       <c r="AQ571" s="3"/>
     </row>
-    <row r="572" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
       <c r="E572" s="3"/>
@@ -25489,7 +25505,7 @@
       <c r="AP572" s="3"/>
       <c r="AQ572" s="3"/>
     </row>
-    <row r="573" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
       <c r="E573" s="3"/>
@@ -25532,7 +25548,7 @@
       <c r="AP573" s="3"/>
       <c r="AQ573" s="3"/>
     </row>
-    <row r="574" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
       <c r="E574" s="3"/>
@@ -25575,7 +25591,7 @@
       <c r="AP574" s="3"/>
       <c r="AQ574" s="3"/>
     </row>
-    <row r="575" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
       <c r="E575" s="3"/>
@@ -25618,7 +25634,7 @@
       <c r="AP575" s="3"/>
       <c r="AQ575" s="3"/>
     </row>
-    <row r="576" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
       <c r="E576" s="3"/>
@@ -25661,7 +25677,7 @@
       <c r="AP576" s="3"/>
       <c r="AQ576" s="3"/>
     </row>
-    <row r="577" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
       <c r="E577" s="3"/>
@@ -25704,7 +25720,7 @@
       <c r="AP577" s="3"/>
       <c r="AQ577" s="3"/>
     </row>
-    <row r="578" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
       <c r="E578" s="3"/>
@@ -25747,7 +25763,7 @@
       <c r="AP578" s="3"/>
       <c r="AQ578" s="3"/>
     </row>
-    <row r="579" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
       <c r="E579" s="3"/>
@@ -25790,7 +25806,7 @@
       <c r="AP579" s="3"/>
       <c r="AQ579" s="3"/>
     </row>
-    <row r="580" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
       <c r="E580" s="3"/>
@@ -25833,7 +25849,7 @@
       <c r="AP580" s="3"/>
       <c r="AQ580" s="3"/>
     </row>
-    <row r="581" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
       <c r="E581" s="3"/>
@@ -25876,7 +25892,7 @@
       <c r="AP581" s="3"/>
       <c r="AQ581" s="3"/>
     </row>
-    <row r="582" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
       <c r="E582" s="3"/>
@@ -25919,7 +25935,7 @@
       <c r="AP582" s="3"/>
       <c r="AQ582" s="3"/>
     </row>
-    <row r="583" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
       <c r="E583" s="3"/>
@@ -25962,7 +25978,7 @@
       <c r="AP583" s="3"/>
       <c r="AQ583" s="3"/>
     </row>
-    <row r="584" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
       <c r="E584" s="3"/>
@@ -26005,7 +26021,7 @@
       <c r="AP584" s="3"/>
       <c r="AQ584" s="3"/>
     </row>
-    <row r="585" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
       <c r="E585" s="3"/>
@@ -26048,7 +26064,7 @@
       <c r="AP585" s="3"/>
       <c r="AQ585" s="3"/>
     </row>
-    <row r="586" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
       <c r="E586" s="3"/>
@@ -26091,7 +26107,7 @@
       <c r="AP586" s="3"/>
       <c r="AQ586" s="3"/>
     </row>
-    <row r="587" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
       <c r="E587" s="3"/>
@@ -26134,7 +26150,7 @@
       <c r="AP587" s="3"/>
       <c r="AQ587" s="3"/>
     </row>
-    <row r="588" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
       <c r="E588" s="3"/>
@@ -26177,7 +26193,7 @@
       <c r="AP588" s="3"/>
       <c r="AQ588" s="3"/>
     </row>
-    <row r="589" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
       <c r="E589" s="3"/>
@@ -26220,7 +26236,7 @@
       <c r="AP589" s="3"/>
       <c r="AQ589" s="3"/>
     </row>
-    <row r="590" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
       <c r="E590" s="3"/>
@@ -26263,7 +26279,7 @@
       <c r="AP590" s="3"/>
       <c r="AQ590" s="3"/>
     </row>
-    <row r="591" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
       <c r="E591" s="3"/>
@@ -26306,7 +26322,7 @@
       <c r="AP591" s="3"/>
       <c r="AQ591" s="3"/>
     </row>
-    <row r="592" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
       <c r="E592" s="3"/>
@@ -26349,7 +26365,7 @@
       <c r="AP592" s="3"/>
       <c r="AQ592" s="3"/>
     </row>
-    <row r="593" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
       <c r="E593" s="3"/>
@@ -26392,7 +26408,7 @@
       <c r="AP593" s="3"/>
       <c r="AQ593" s="3"/>
     </row>
-    <row r="594" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
       <c r="E594" s="3"/>
@@ -26435,7 +26451,7 @@
       <c r="AP594" s="3"/>
       <c r="AQ594" s="3"/>
     </row>
-    <row r="595" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
       <c r="E595" s="3"/>
@@ -26478,7 +26494,7 @@
       <c r="AP595" s="3"/>
       <c r="AQ595" s="3"/>
     </row>
-    <row r="596" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
       <c r="E596" s="3"/>
@@ -26521,7 +26537,7 @@
       <c r="AP596" s="3"/>
       <c r="AQ596" s="3"/>
     </row>
-    <row r="597" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
       <c r="E597" s="3"/>
@@ -26564,7 +26580,7 @@
       <c r="AP597" s="3"/>
       <c r="AQ597" s="3"/>
     </row>
-    <row r="598" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
       <c r="E598" s="3"/>
@@ -26607,7 +26623,7 @@
       <c r="AP598" s="3"/>
       <c r="AQ598" s="3"/>
     </row>
-    <row r="599" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
       <c r="E599" s="3"/>
@@ -26650,7 +26666,7 @@
       <c r="AP599" s="3"/>
       <c r="AQ599" s="3"/>
     </row>
-    <row r="600" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
       <c r="E600" s="3"/>
@@ -26693,7 +26709,7 @@
       <c r="AP600" s="3"/>
       <c r="AQ600" s="3"/>
     </row>
-    <row r="601" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
       <c r="E601" s="3"/>
@@ -26736,7 +26752,7 @@
       <c r="AP601" s="3"/>
       <c r="AQ601" s="3"/>
     </row>
-    <row r="602" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
       <c r="E602" s="3"/>
@@ -26779,7 +26795,7 @@
       <c r="AP602" s="3"/>
       <c r="AQ602" s="3"/>
     </row>
-    <row r="603" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
       <c r="E603" s="3"/>
@@ -26822,7 +26838,7 @@
       <c r="AP603" s="3"/>
       <c r="AQ603" s="3"/>
     </row>
-    <row r="604" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
       <c r="E604" s="3"/>
@@ -26865,7 +26881,7 @@
       <c r="AP604" s="3"/>
       <c r="AQ604" s="3"/>
     </row>
-    <row r="605" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
       <c r="E605" s="3"/>
@@ -26908,7 +26924,7 @@
       <c r="AP605" s="3"/>
       <c r="AQ605" s="3"/>
     </row>
-    <row r="606" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
       <c r="E606" s="3"/>
@@ -26951,7 +26967,7 @@
       <c r="AP606" s="3"/>
       <c r="AQ606" s="3"/>
     </row>
-    <row r="607" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
       <c r="E607" s="3"/>
@@ -26994,7 +27010,7 @@
       <c r="AP607" s="3"/>
       <c r="AQ607" s="3"/>
     </row>
-    <row r="608" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
       <c r="E608" s="3"/>
@@ -27037,7 +27053,7 @@
       <c r="AP608" s="3"/>
       <c r="AQ608" s="3"/>
     </row>
-    <row r="609" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
       <c r="E609" s="3"/>
@@ -27080,7 +27096,7 @@
       <c r="AP609" s="3"/>
       <c r="AQ609" s="3"/>
     </row>
-    <row r="610" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
       <c r="E610" s="3"/>
@@ -27123,7 +27139,7 @@
       <c r="AP610" s="3"/>
       <c r="AQ610" s="3"/>
     </row>
-    <row r="611" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
       <c r="E611" s="3"/>
@@ -27166,7 +27182,7 @@
       <c r="AP611" s="3"/>
       <c r="AQ611" s="3"/>
     </row>
-    <row r="612" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
       <c r="E612" s="3"/>
@@ -27209,7 +27225,7 @@
       <c r="AP612" s="3"/>
       <c r="AQ612" s="3"/>
     </row>
-    <row r="613" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
       <c r="E613" s="3"/>
@@ -27252,7 +27268,7 @@
       <c r="AP613" s="3"/>
       <c r="AQ613" s="3"/>
     </row>
-    <row r="614" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
       <c r="E614" s="3"/>
@@ -27295,7 +27311,7 @@
       <c r="AP614" s="3"/>
       <c r="AQ614" s="3"/>
     </row>
-    <row r="615" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
       <c r="E615" s="3"/>
@@ -27338,7 +27354,7 @@
       <c r="AP615" s="3"/>
       <c r="AQ615" s="3"/>
     </row>
-    <row r="616" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
       <c r="E616" s="3"/>
@@ -27381,7 +27397,7 @@
       <c r="AP616" s="3"/>
       <c r="AQ616" s="3"/>
     </row>
-    <row r="617" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
       <c r="E617" s="3"/>
@@ -27424,7 +27440,7 @@
       <c r="AP617" s="3"/>
       <c r="AQ617" s="3"/>
     </row>
-    <row r="618" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
       <c r="E618" s="3"/>
@@ -27467,7 +27483,7 @@
       <c r="AP618" s="3"/>
       <c r="AQ618" s="3"/>
     </row>
-    <row r="619" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
       <c r="E619" s="3"/>
@@ -27510,7 +27526,7 @@
       <c r="AP619" s="3"/>
       <c r="AQ619" s="3"/>
     </row>
-    <row r="620" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
       <c r="E620" s="3"/>
@@ -27553,7 +27569,7 @@
       <c r="AP620" s="3"/>
       <c r="AQ620" s="3"/>
     </row>
-    <row r="621" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
       <c r="E621" s="3"/>
@@ -27596,7 +27612,7 @@
       <c r="AP621" s="3"/>
       <c r="AQ621" s="3"/>
     </row>
-    <row r="622" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
       <c r="E622" s="3"/>
@@ -27639,7 +27655,7 @@
       <c r="AP622" s="3"/>
       <c r="AQ622" s="3"/>
     </row>
-    <row r="623" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
@@ -27682,7 +27698,7 @@
       <c r="AP623" s="3"/>
       <c r="AQ623" s="3"/>
     </row>
-    <row r="624" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
@@ -27725,7 +27741,7 @@
       <c r="AP624" s="3"/>
       <c r="AQ624" s="3"/>
     </row>
-    <row r="625" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
       <c r="E625" s="3"/>
@@ -27768,7 +27784,7 @@
       <c r="AP625" s="3"/>
       <c r="AQ625" s="3"/>
     </row>
-    <row r="626" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
       <c r="E626" s="3"/>
@@ -27811,7 +27827,7 @@
       <c r="AP626" s="3"/>
       <c r="AQ626" s="3"/>
     </row>
-    <row r="627" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
       <c r="E627" s="3"/>
@@ -27854,7 +27870,7 @@
       <c r="AP627" s="3"/>
       <c r="AQ627" s="3"/>
     </row>
-    <row r="628" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
       <c r="E628" s="3"/>
@@ -27897,7 +27913,7 @@
       <c r="AP628" s="3"/>
       <c r="AQ628" s="3"/>
     </row>
-    <row r="629" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
       <c r="E629" s="3"/>
@@ -27940,7 +27956,7 @@
       <c r="AP629" s="3"/>
       <c r="AQ629" s="3"/>
     </row>
-    <row r="630" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
       <c r="E630" s="3"/>
@@ -27983,7 +27999,7 @@
       <c r="AP630" s="3"/>
       <c r="AQ630" s="3"/>
     </row>
-    <row r="631" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
       <c r="E631" s="3"/>
@@ -28026,7 +28042,7 @@
       <c r="AP631" s="3"/>
       <c r="AQ631" s="3"/>
     </row>
-    <row r="632" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
       <c r="E632" s="3"/>
@@ -28069,7 +28085,7 @@
       <c r="AP632" s="3"/>
       <c r="AQ632" s="3"/>
     </row>
-    <row r="633" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
       <c r="E633" s="3"/>
@@ -28112,7 +28128,7 @@
       <c r="AP633" s="3"/>
       <c r="AQ633" s="3"/>
     </row>
-    <row r="634" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:43" x14ac:dyDescent="0.2">
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
       <c r="E634" s="3"/>
